--- a/Tab-Fonction.xlsx
+++ b/Tab-Fonction.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="24931"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="24827"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\coren\Documents\Cours\WEB\Projet\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://cnam-my.sharepoint.com/personal/quentin_lustiere_auditeur_lecnam_net/Documents/Documents/COURS/TACOS-BURGER/Projet-Web/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{CF6AB773-E5BE-45B7-B376-5BE2A058D1D6}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="1" documentId="8_{CF6AB773-E5BE-45B7-B376-5BE2A058D1D6}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{2FCD6F3F-FBD5-4D52-AE4A-5D3DEE59EF2F}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{089C0778-5133-4CBD-B8B1-0D8D29021B83}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{089C0778-5133-4CBD-B8B1-0D8D29021B83}"/>
   </bookViews>
   <sheets>
     <sheet name="Feuil1" sheetId="1" r:id="rId1"/>
@@ -35,7 +35,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="16" uniqueCount="16">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="17" uniqueCount="17">
   <si>
     <t>N° Fonction</t>
   </si>
@@ -83,6 +83,9 @@
   </si>
   <si>
     <t>FC3</t>
+  </si>
+  <si>
+    <t>modification</t>
   </si>
 </sst>
 </file>
@@ -515,12 +518,12 @@
   <dimension ref="A1:F12"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="I11" sqref="I11"/>
+      <selection activeCell="B3" sqref="B3"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <sheetData>
-    <row r="1" spans="1:6" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="1" spans="1:6" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -540,7 +543,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="2" spans="1:6" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="2" spans="1:6" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A2" s="5"/>
       <c r="B2" s="6"/>
       <c r="C2" s="6"/>
@@ -548,17 +551,19 @@
       <c r="E2" s="6"/>
       <c r="F2" s="6"/>
     </row>
-    <row r="3" spans="1:6" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="3" spans="1:6" ht="30.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A3" s="3" t="s">
         <v>6</v>
       </c>
-      <c r="B3" s="4"/>
+      <c r="B3" s="4" t="s">
+        <v>16</v>
+      </c>
       <c r="C3" s="4"/>
       <c r="D3" s="4"/>
       <c r="E3" s="4"/>
       <c r="F3" s="4"/>
     </row>
-    <row r="4" spans="1:6" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="4" spans="1:6" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A4" s="3" t="s">
         <v>7</v>
       </c>
@@ -568,7 +573,7 @@
       <c r="E4" s="4"/>
       <c r="F4" s="4"/>
     </row>
-    <row r="5" spans="1:6" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="5" spans="1:6" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A5" s="3" t="s">
         <v>8</v>
       </c>
@@ -578,7 +583,7 @@
       <c r="E5" s="4"/>
       <c r="F5" s="4"/>
     </row>
-    <row r="6" spans="1:6" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="6" spans="1:6" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A6" s="3" t="s">
         <v>9</v>
       </c>
@@ -588,7 +593,7 @@
       <c r="E6" s="4"/>
       <c r="F6" s="4"/>
     </row>
-    <row r="7" spans="1:6" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="7" spans="1:6" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A7" s="3" t="s">
         <v>10</v>
       </c>
@@ -598,7 +603,7 @@
       <c r="E7" s="4"/>
       <c r="F7" s="4"/>
     </row>
-    <row r="8" spans="1:6" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="8" spans="1:6" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A8" s="3" t="s">
         <v>11</v>
       </c>
@@ -608,7 +613,7 @@
       <c r="E8" s="4"/>
       <c r="F8" s="4"/>
     </row>
-    <row r="9" spans="1:6" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="9" spans="1:6" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A9" s="3" t="s">
         <v>12</v>
       </c>
@@ -618,7 +623,7 @@
       <c r="E9" s="4"/>
       <c r="F9" s="4"/>
     </row>
-    <row r="10" spans="1:6" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="10" spans="1:6" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A10" s="3" t="s">
         <v>13</v>
       </c>
@@ -628,7 +633,7 @@
       <c r="E10" s="4"/>
       <c r="F10" s="4"/>
     </row>
-    <row r="11" spans="1:6" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="11" spans="1:6" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A11" s="3" t="s">
         <v>14</v>
       </c>
@@ -638,7 +643,7 @@
       <c r="E11" s="4"/>
       <c r="F11" s="4"/>
     </row>
-    <row r="12" spans="1:6" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="12" spans="1:6" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A12" s="3" t="s">
         <v>15</v>
       </c>

--- a/Tab-Fonction.xlsx
+++ b/Tab-Fonction.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="24827"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="24931"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://cnam-my.sharepoint.com/personal/quentin_lustiere_auditeur_lecnam_net/Documents/Documents/COURS/TACOS-BURGER/Projet-Web/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\eddyg\OneDrive\Documents\GitHub\Projet-Web\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="1" documentId="8_{CF6AB773-E5BE-45B7-B376-5BE2A058D1D6}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{2FCD6F3F-FBD5-4D52-AE4A-5D3DEE59EF2F}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9914FE1D-C71E-4EDB-A556-29DAB1315278}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{089C0778-5133-4CBD-B8B1-0D8D29021B83}"/>
   </bookViews>
@@ -35,7 +35,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="17" uniqueCount="17">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="18" uniqueCount="18">
   <si>
     <t>N° Fonction</t>
   </si>
@@ -86,6 +86,9 @@
   </si>
   <si>
     <t>modification</t>
+  </si>
+  <si>
+    <t>ojadkiajdouajnhduiabdn</t>
   </si>
 </sst>
 </file>
@@ -518,10 +521,13 @@
   <dimension ref="A1:F12"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B3" sqref="B3"/>
+      <selection activeCell="J5" sqref="J5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="2" max="2" width="12.28515625" bestFit="1" customWidth="1"/>
+  </cols>
   <sheetData>
     <row r="1" spans="1:6" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
@@ -551,7 +557,7 @@
       <c r="E2" s="6"/>
       <c r="F2" s="6"/>
     </row>
-    <row r="3" spans="1:6" ht="30.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:6" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A3" s="3" t="s">
         <v>6</v>
       </c>
@@ -603,14 +609,16 @@
       <c r="E7" s="4"/>
       <c r="F7" s="4"/>
     </row>
-    <row r="8" spans="1:6" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:6" ht="45.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A8" s="3" t="s">
         <v>11</v>
       </c>
       <c r="B8" s="4"/>
       <c r="C8" s="4"/>
       <c r="D8" s="4"/>
-      <c r="E8" s="4"/>
+      <c r="E8" s="4" t="s">
+        <v>17</v>
+      </c>
       <c r="F8" s="4"/>
     </row>
     <row r="9" spans="1:6" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
